--- a/RegExp.xlsx
+++ b/RegExp.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F23E2C2-5C1D-4CFB-8FAD-93525CEB2E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regex And Code Conventions" sheetId="3" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>// cleanup --&gt; code to delete</t>
   </si>
@@ -134,11 +135,17 @@
   <si>
     <t>matches a complete line of text that contains any of the words “one”, “two” or “three”</t>
   </si>
+  <si>
+    <t>((?&lt;=\}[\s]?\n)\s+\n(?=.*\}))|((?&lt;=^[\s]?\n)^\s+?\n)</t>
+  </si>
+  <si>
+    <t>regex101.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -220,7 +227,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -314,6 +326,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -349,6 +378,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -524,27 +570,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="51.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="56" style="1" customWidth="1"/>
-    <col min="4" max="4" width="55.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="4" width="55.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -554,11 +600,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -568,18 +614,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -589,94 +637,104 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="22.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
